--- a/docs/Classifcation Reports/LinearSVC()_3.xlsx
+++ b/docs/Classifcation Reports/LinearSVC()_3.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8526645768025078</v>
+        <v>0.8733660130718954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9395509499136442</v>
+        <v>0.9255411255411256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8940016433853738</v>
+        <v>0.8986969314838169</v>
       </c>
       <c r="E2" t="n">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9467084639498433</v>
+        <v>0.9556259904912837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9335394126738794</v>
+        <v>0.9319938176197836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9400778210116731</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="E3" t="n">
         <v>647</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8586525759577279</v>
+        <v>0.8474148802017655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8207070707070707</v>
+        <v>0.8538754764930114</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8392511297611364</v>
+        <v>0.850632911392405</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8550185873605948</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6705539358600583</v>
+        <v>0.7065527065527065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7516339869281046</v>
+        <v>0.7713841368584758</v>
       </c>
       <c r="E5" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8748299319727891</v>
+        <v>0.8816326530612245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8748299319727891</v>
+        <v>0.8816326530612245</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8748299319727891</v>
+        <v>0.8816326530612245</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8748299319727891</v>
+        <v>0.8816326530612245</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8782610510176684</v>
+        <v>0.8814304880645237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8410878422886631</v>
+        <v>0.8544907815516567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.856241145271572</v>
+        <v>0.866093987891421</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8752483577333529</v>
+        <v>0.8816506328931242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8748299319727891</v>
+        <v>0.8816326530612245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87278285902108</v>
+        <v>0.8805265935175524</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
